--- a/files/input/offersDataMDB.xlsx
+++ b/files/input/offersDataMDB.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +524,7 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>3200</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/files/input/offersDataMDB.xlsx
+++ b/files/input/offersDataMDB.xlsx
@@ -19,16 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="25">
-  <si>
-    <t>JONESBORO SPÓŁKA Z OGRANICZONĄ ODPOWIEDZIALNOŚCIĄ</t>
-  </si>
-  <si>
-    <t>"KODREWEX" SPÓŁKA Z OGRANICZONĄ ODPOWIEDZIALNOŚCIĄ</t>
-  </si>
-  <si>
-    <t>PALOMINO Justyna Jaskulska</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>productNumber</t>
   </si>
@@ -57,36 +48,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>5252516964</t>
   </si>
   <si>
@@ -94,6 +55,27 @@
   </si>
   <si>
     <t>8982126450</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>1111111111</t>
+  </si>
+  <si>
+    <t>2222222222</t>
   </si>
 </sst>
 </file>
@@ -416,7 +398,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,97 +413,97 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>3500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>4000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>4500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>3800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>3700</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>4000</v>
@@ -529,297 +511,153 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D8">
-        <v>3400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>3800</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>3900</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>3800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>3900</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13">
-        <v>3800</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14">
-        <v>3900</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15">
-        <v>3800</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20">
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22">
-        <v>5300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27">
-        <v>5800</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28">
-        <v>5000</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
